--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSwap" sheetId="1" r:id="rId1"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
     <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -547,7 +547,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -563,7 +563,7 @@
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -579,19 +579,15 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7)</f>
-        <v>Swap0001.12:40:50-1</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xll.QSA.ValueZARSwap(B10,C3,B10)</f>
-        <v>Swap0001.12:40:50-1 is not of required type: QuantSA.DatesAndRates</v>
+        <v>Swap0001.05:38:49-7</v>
       </c>
     </row>
   </sheetData>
@@ -603,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1216,7 @@
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25)</f>
-        <v>swapCurve.12:40:50-2</v>
+        <v>swapCurve.05:38:49-8</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.35">
@@ -1231,7 +1227,7 @@
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="14">
         <f>_xll.QSA.ValueZARSwap(CreateSwap!B10,C2,C28)</f>
-        <v>-28393.52372690817</v>
+        <v>503.9573350386454</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSwap" sheetId="1" r:id="rId1"/>
@@ -517,18 +517,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -599,13 +599,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
@@ -1012,13 +1016,13 @@
   <dimension ref="B2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSwap" sheetId="1" r:id="rId1"/>
     <sheet name="ViewSwap" sheetId="2" r:id="rId2"/>
     <sheet name="ValueSwap" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>QSA.ValueZARSwap</t>
+  </si>
+  <si>
+    <t>QSA.GetAvailableResults</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +115,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -185,6 +195,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,14 +621,18 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -625,8 +640,12 @@
         <f>_xll.QSA.GetResults(CreateSwap!$B$10,B3)</f>
         <v>8.1199999999999994E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="7" t="str">
+        <f t="array" aca="1" ref="I3:I10" ca="1">_xll.QSA.GetAvailableResults(CreateSwap!B10)</f>
+        <v>accrualFractions</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -634,8 +653,12 @@
         <f>_xll.QSA.GetResults(CreateSwap!$B$10,B4)</f>
         <v>ZAR:JIBAR:3M</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="str">
+        <f ca="1"/>
+        <v>fixedRate</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -643,8 +666,18 @@
         <f>_xll.QSA.GetResults(CreateSwap!$B$10,B5)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I5" s="7" t="str">
+        <f ca="1"/>
+        <v>index</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="str">
+        <f ca="1"/>
+        <v>indexDates</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -660,8 +693,12 @@
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="7" t="str">
+        <f ca="1"/>
+        <v>notionals</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <f t="array" ref="B8:B27">_xll.QSA.GetResults(CreateSwap!$B$10,B7)</f>
         <v>1000000</v>
@@ -682,8 +719,12 @@
         <f t="array" ref="F8:F27">_xll.QSA.GetResults(CreateSwap!$B$10,F7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I8" s="7" t="str">
+        <f ca="1"/>
+        <v>payDates</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1000000</v>
       </c>
@@ -699,8 +740,12 @@
       <c r="F9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="7" t="str">
+        <f ca="1"/>
+        <v>payFixed</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>1000000</v>
       </c>
@@ -716,8 +761,12 @@
       <c r="F10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="7" t="str">
+        <f ca="1"/>
+        <v>spreads</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>1000000</v>
       </c>
@@ -734,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>1000000</v>
       </c>
@@ -751,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>1000000</v>
       </c>
@@ -768,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>1000000</v>
       </c>
@@ -785,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>1000000</v>
       </c>
@@ -802,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>1000000</v>
       </c>
@@ -1008,6 +1057,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ViewSwap" sheetId="2" r:id="rId2"/>
     <sheet name="ValueSwap" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -598,7 +598,7 @@
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7)</f>
-        <v>Swap0001.05:38:49-7</v>
+        <v>Swap0001.20:07:11-2</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +611,7 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="array" aca="1" ref="I3:I10" ca="1">_xll.QSA.GetAvailableResults(CreateSwap!B10)</f>
+        <f t="array" ref="I3:I10">_xll.QSA.GetAvailableResults(CreateSwap!B10)</f>
         <v>accrualFractions</v>
       </c>
     </row>
@@ -654,7 +654,6 @@
         <v>ZAR:JIBAR:3M</v>
       </c>
       <c r="I4" s="7" t="str">
-        <f ca="1"/>
         <v>fixedRate</v>
       </c>
     </row>
@@ -667,13 +666,11 @@
         <v>-1</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f ca="1"/>
         <v>index</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I6" s="7" t="str">
-        <f ca="1"/>
         <v>indexDates</v>
       </c>
     </row>
@@ -694,7 +691,6 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="str">
-        <f ca="1"/>
         <v>notionals</v>
       </c>
     </row>
@@ -720,7 +716,6 @@
         <v>0</v>
       </c>
       <c r="I8" s="7" t="str">
-        <f ca="1"/>
         <v>payDates</v>
       </c>
     </row>
@@ -741,7 +736,6 @@
         <v>0</v>
       </c>
       <c r="I9" s="7" t="str">
-        <f ca="1"/>
         <v>payFixed</v>
       </c>
     </row>
@@ -762,7 +756,6 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f ca="1"/>
         <v>spreads</v>
       </c>
     </row>
@@ -1066,7 +1059,7 @@
   <dimension ref="B2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,8 +1262,8 @@
         <v>17</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25)</f>
-        <v>swapCurve.05:38:49-8</v>
+        <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25,"ZAR")</f>
+        <v>swapCurve.20:07:11-1</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.35">

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSwap" sheetId="1" r:id="rId1"/>
@@ -60,15 +60,9 @@
     <t>notionals</t>
   </si>
   <si>
-    <t>payDates</t>
-  </si>
-  <si>
     <t>spreads</t>
   </si>
   <si>
-    <t>QSA.GetResults</t>
-  </si>
-  <si>
     <t>swapCurve</t>
   </si>
   <si>
@@ -87,7 +81,13 @@
     <t>QSA.ValueZARSwap</t>
   </si>
   <si>
-    <t>QSA.GetAvailableResults</t>
+    <t>QSA.ViewObjectPropertyNames</t>
+  </si>
+  <si>
+    <t>QSA.ViewObjectPropertyValue</t>
+  </si>
+  <si>
+    <t>paymentDates</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +196,8 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,20 +531,20 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +560,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -566,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -574,7 +576,7 @@
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -582,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -595,10 +597,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7)</f>
-        <v>Swap0001.20:07:11-2</v>
+        <v>Swap0001.21:17:15-8</v>
       </c>
     </row>
   </sheetData>
@@ -608,73 +610,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="9">
-        <f>_xll.QSA.GetResults(CreateSwap!$B$10,B3)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B3)</f>
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="array" ref="I3:I10">_xll.QSA.GetAvailableResults(CreateSwap!B10)</f>
+        <f t="array" ref="I3:I11">_xll.QSA.ViewObjectPropertyNames(CreateSwap!B10)</f>
         <v>accrualFractions</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="str">
-        <f>_xll.QSA.GetResults(CreateSwap!$B$10,B4)</f>
+      <c r="C4" s="9" t="str">
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B4,"toString")</f>
         <v>ZAR:JIBAR:3M</v>
       </c>
       <c r="I4" s="7" t="str">
-        <v>fixedRate</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>ccy</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
-        <f>_xll.QSA.GetResults(CreateSwap!$B$10,B5)</f>
+      <c r="C5" s="17">
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B5)</f>
         <v>-1</v>
       </c>
       <c r="I5" s="7" t="str">
+        <v>fixedRate</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="str">
         <v>index</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="7" t="str">
-        <v>indexDates</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -682,44 +686,44 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7" t="str">
+        <v>indexDates</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <f t="array" ref="B8:B27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B7)</f>
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="array" ref="C8:C27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,C7)</f>
+        <v>42633</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="array" ref="D8:D27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,D7)</f>
+        <v>42724</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="array" ref="E8:E27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,E7)</f>
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="array" ref="F8:F27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,F7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="str">
         <v>notionals</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <f t="array" ref="B8:B27">_xll.QSA.GetResults(CreateSwap!$B$10,B7)</f>
-        <v>1000000</v>
-      </c>
-      <c r="C8" s="11">
-        <f t="array" ref="C8:C27">_xll.QSA.GetResults(CreateSwap!$B$10,C7)</f>
-        <v>42633</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="array" ref="D8:D27">_xll.QSA.GetResults(CreateSwap!$B$10,D7)</f>
-        <v>42724</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="array" ref="E8:E27">_xll.QSA.GetResults(CreateSwap!$B$10,E7)</f>
-        <v>0.24931506849315069</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="array" ref="F8:F27">_xll.QSA.GetResults(CreateSwap!$B$10,F7)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <v>payDates</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1000000</v>
       </c>
@@ -739,7 +743,7 @@
         <v>payFixed</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>1000000</v>
       </c>
@@ -756,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="str">
-        <v>spreads</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>paymentDates</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>1000000</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="F11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="7" t="str">
+        <v>spreads</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>1000000</v>
       </c>
@@ -793,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>1000000</v>
       </c>
@@ -810,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>1000000</v>
       </c>
@@ -827,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>1000000</v>
       </c>
@@ -844,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>1000000</v>
       </c>
@@ -861,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>1000000</v>
       </c>
@@ -878,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>1000000</v>
       </c>
@@ -895,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1000000</v>
       </c>
@@ -912,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1000000</v>
       </c>
@@ -929,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>1000000</v>
       </c>
@@ -946,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>1000000</v>
       </c>
@@ -963,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>1000000</v>
       </c>
@@ -980,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>1000000</v>
       </c>
@@ -997,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>1000000</v>
       </c>
@@ -1014,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>1000000</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>1000000</v>
       </c>
@@ -1048,6 +1055,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1059,32 +1067,32 @@
   <dimension ref="B2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4">
         <v>42633</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>42633</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>42634</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>42663</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>7.1169999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>42724</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>7.3579999999999993E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>42814</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>42906</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>8.3249999999999991E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>42998</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>7.6315999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>43363</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v>7.7480000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>43728</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>7.8579999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>44094</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>7.9750000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>44459</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>8.0850000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>44824</v>
       </c>
@@ -1180,7 +1188,7 @@
         <v>8.1850000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>45189</v>
       </c>
@@ -1188,7 +1196,7 @@
         <v>8.2699999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>45555</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>8.3430000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>45920</v>
       </c>
@@ -1204,7 +1212,7 @@
         <v>8.406000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>46285</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>8.455E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>47016</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>8.5120000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>48111</v>
       </c>
@@ -1228,7 +1236,7 @@
         <v>8.5280000000000009E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>49938</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v>8.455E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>51764</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>53590</v>
       </c>
@@ -1254,24 +1262,24 @@
     </row>
     <row r="27" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25,"ZAR")</f>
-        <v>swapCurve.20:07:11-1</v>
+        <v>swapCurve.21:17:15-7</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="14">
         <f>_xll.QSA.ValueZARSwap(CreateSwap!B10,C2,C28)</f>
         <v>503.9573350386454</v>

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSwap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>paymentDates</t>
+  </si>
+  <si>
+    <t>jibar</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.3M</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,15 +598,23 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="str">
-        <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7)</f>
-        <v>Swap0001.21:17:15-8</v>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="str">
+        <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7,C8)</f>
+        <v>Swap0001.19:53:54-1</v>
       </c>
     </row>
   </sheetData>
@@ -612,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,11 +654,11 @@
         <v>10</v>
       </c>
       <c r="C3" s="9">
-        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B3)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B3)</f>
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="array" ref="I3:I11">_xll.QSA.ViewObjectPropertyNames(CreateSwap!B10)</f>
+        <f t="array" ref="I3:I11">_xll.QSA.ViewObjectPropertyNames(CreateSwap!B11)</f>
         <v>accrualFractions</v>
       </c>
       <c r="L3" s="16"/>
@@ -654,11 +668,11 @@
         <v>11</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B4,"toString")</f>
-        <v>ZAR:JIBAR:3M</v>
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B4)</f>
+        <v>ZAR.JIBAR.3M</v>
       </c>
       <c r="I4" s="7" t="str">
-        <v>ccy</v>
+        <v>fixedRate</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
@@ -666,16 +680,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="17">
-        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B5)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B5)</f>
         <v>-1</v>
       </c>
       <c r="I5" s="7" t="str">
-        <v>fixedRate</v>
+        <v>index</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="I6" s="7" t="str">
-        <v>index</v>
+        <v>ccy</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
@@ -700,23 +714,23 @@
     </row>
     <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
-        <f t="array" ref="B8:B27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,B7)</f>
+        <f t="array" ref="B8:B27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B7)</f>
         <v>1000000</v>
       </c>
       <c r="C8" s="11">
-        <f t="array" ref="C8:C27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,C7)</f>
+        <f t="array" ref="C8:C27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,C7)</f>
         <v>42633</v>
       </c>
       <c r="D8" s="11">
-        <f t="array" ref="D8:D27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,D7)</f>
+        <f t="array" ref="D8:D27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,D7)</f>
         <v>42724</v>
       </c>
       <c r="E8" s="10">
-        <f t="array" ref="E8:E27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,E7)</f>
+        <f t="array" ref="E8:E27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,E7)</f>
         <v>0.24931506849315069</v>
       </c>
       <c r="F8" s="9">
-        <f t="array" ref="F8:F27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$10,F7)</f>
+        <f t="array" ref="F8:F27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,F7)</f>
         <v>0</v>
       </c>
       <c r="I8" s="7" t="str">
@@ -1066,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1285,7 @@
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25,"ZAR")</f>
-        <v>swapCurve.21:17:15-7</v>
+        <v>swapCurve.19:54:00-2</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.35">
@@ -1281,7 +1295,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="14">
-        <f>_xll.QSA.ValueZARSwap(CreateSwap!B10,C2,C28)</f>
+        <f>_xll.QSA.ValueZARSwap(CreateSwap!B11,C2,C28)</f>
         <v>503.9573350386454</v>
       </c>
     </row>

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSwap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -60,15 +60,9 @@
     <t>notionals</t>
   </si>
   <si>
-    <t>payDates</t>
-  </si>
-  <si>
     <t>spreads</t>
   </si>
   <si>
-    <t>QSA.GetResults</t>
-  </si>
-  <si>
     <t>swapCurve</t>
   </si>
   <si>
@@ -87,7 +81,19 @@
     <t>QSA.ValueZARSwap</t>
   </si>
   <si>
-    <t>QSA.GetAvailableResults</t>
+    <t>QSA.ViewObjectPropertyNames</t>
+  </si>
+  <si>
+    <t>QSA.ViewObjectPropertyValue</t>
+  </si>
+  <si>
+    <t>paymentDates</t>
+  </si>
+  <si>
+    <t>jibar</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.3M</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +202,8 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,23 +534,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +566,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -566,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -574,7 +582,7 @@
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -582,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -590,15 +598,23 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="str">
-        <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7)</f>
-        <v>Swap0001.20:07:11-2</v>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="str">
+        <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7,C8)</f>
+        <v>Swap0001.19:53:54-1</v>
       </c>
     </row>
   </sheetData>
@@ -608,73 +624,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="9">
-        <f>_xll.QSA.GetResults(CreateSwap!$B$10,B3)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B3)</f>
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="array" ref="I3:I10">_xll.QSA.GetAvailableResults(CreateSwap!B10)</f>
+        <f t="array" ref="I3:I11">_xll.QSA.ViewObjectPropertyNames(CreateSwap!B11)</f>
         <v>accrualFractions</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="str">
-        <f>_xll.QSA.GetResults(CreateSwap!$B$10,B4)</f>
-        <v>ZAR:JIBAR:3M</v>
+      <c r="C4" s="9" t="str">
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B4)</f>
+        <v>ZAR.JIBAR.3M</v>
       </c>
       <c r="I4" s="7" t="str">
         <v>fixedRate</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
-        <f>_xll.QSA.GetResults(CreateSwap!$B$10,B5)</f>
+      <c r="C5" s="17">
+        <f>_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B5)</f>
         <v>-1</v>
       </c>
       <c r="I5" s="7" t="str">
         <v>index</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="I6" s="7" t="str">
-        <v>indexDates</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>ccy</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -682,44 +700,44 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7" t="str">
+        <v>indexDates</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <f t="array" ref="B8:B27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B7)</f>
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="array" ref="C8:C27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,C7)</f>
+        <v>42633</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="array" ref="D8:D27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,D7)</f>
+        <v>42724</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="array" ref="E8:E27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,E7)</f>
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="array" ref="F8:F27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,F7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="str">
         <v>notionals</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <f t="array" ref="B8:B27">_xll.QSA.GetResults(CreateSwap!$B$10,B7)</f>
-        <v>1000000</v>
-      </c>
-      <c r="C8" s="11">
-        <f t="array" ref="C8:C27">_xll.QSA.GetResults(CreateSwap!$B$10,C7)</f>
-        <v>42633</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="array" ref="D8:D27">_xll.QSA.GetResults(CreateSwap!$B$10,D7)</f>
-        <v>42724</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="array" ref="E8:E27">_xll.QSA.GetResults(CreateSwap!$B$10,E7)</f>
-        <v>0.24931506849315069</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="array" ref="F8:F27">_xll.QSA.GetResults(CreateSwap!$B$10,F7)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <v>payDates</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1000000</v>
       </c>
@@ -739,7 +757,7 @@
         <v>payFixed</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>1000000</v>
       </c>
@@ -756,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="str">
-        <v>spreads</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>paymentDates</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>1000000</v>
       </c>
@@ -775,8 +793,11 @@
       <c r="F11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="7" t="str">
+        <v>spreads</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>1000000</v>
       </c>
@@ -793,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>1000000</v>
       </c>
@@ -810,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>1000000</v>
       </c>
@@ -827,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>1000000</v>
       </c>
@@ -844,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>1000000</v>
       </c>
@@ -861,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>1000000</v>
       </c>
@@ -878,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>1000000</v>
       </c>
@@ -895,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1000000</v>
       </c>
@@ -912,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1000000</v>
       </c>
@@ -929,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>1000000</v>
       </c>
@@ -946,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>1000000</v>
       </c>
@@ -963,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>1000000</v>
       </c>
@@ -980,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>1000000</v>
       </c>
@@ -997,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>1000000</v>
       </c>
@@ -1014,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>1000000</v>
       </c>
@@ -1031,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>1000000</v>
       </c>
@@ -1048,6 +1069,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1058,33 +1080,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4">
         <v>42633</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>42633</v>
       </c>
@@ -1092,7 +1114,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>42634</v>
       </c>
@@ -1100,7 +1122,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>42663</v>
       </c>
@@ -1108,7 +1130,7 @@
         <v>7.1169999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>42724</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>7.3579999999999993E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>42814</v>
       </c>
@@ -1124,7 +1146,7 @@
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>42906</v>
       </c>
@@ -1132,7 +1154,7 @@
         <v>8.3249999999999991E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>42998</v>
       </c>
@@ -1140,7 +1162,7 @@
         <v>7.6315999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>43363</v>
       </c>
@@ -1148,7 +1170,7 @@
         <v>7.7480000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>43728</v>
       </c>
@@ -1156,7 +1178,7 @@
         <v>7.8579999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>44094</v>
       </c>
@@ -1164,7 +1186,7 @@
         <v>7.9750000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>44459</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>8.0850000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>44824</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>8.1850000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>45189</v>
       </c>
@@ -1188,7 +1210,7 @@
         <v>8.2699999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>45555</v>
       </c>
@@ -1196,7 +1218,7 @@
         <v>8.3430000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>45920</v>
       </c>
@@ -1204,7 +1226,7 @@
         <v>8.406000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>46285</v>
       </c>
@@ -1212,7 +1234,7 @@
         <v>8.455E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>47016</v>
       </c>
@@ -1220,7 +1242,7 @@
         <v>8.5120000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>48111</v>
       </c>
@@ -1228,7 +1250,7 @@
         <v>8.5280000000000009E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>49938</v>
       </c>
@@ -1236,7 +1258,7 @@
         <v>8.455E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>51764</v>
       </c>
@@ -1244,7 +1266,7 @@
         <v>8.3199999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>53590</v>
       </c>
@@ -1254,26 +1276,26 @@
     </row>
     <row r="27" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25,"ZAR")</f>
-        <v>swapCurve.20:07:11-1</v>
+        <v>swapCurve.19:54:00-2</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="14">
-        <f>_xll.QSA.ValueZARSwap(CreateSwap!B10,C2,C28)</f>
+        <f>_xll.QSA.ValueZARSwap(CreateSwap!B11,C2,C28)</f>
         <v>503.9573350386454</v>
       </c>
     </row>

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -1,22 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a2c6574b59b6aaf/Documents/GitHub/Riskworx/QuantSA/ExcelExamples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_C21A89BAE15895ECB1CFC6D3ACB21B02A512DD26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E75ECC5-0111-4C70-8C2A-FC94013488CE}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
+    <workbookView xWindow="-110" yWindow="610" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSwap" sheetId="1" r:id="rId1"/>
     <sheet name="ViewSwap" sheetId="2" r:id="rId2"/>
     <sheet name="ValueSwap" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -94,12 +133,15 @@
   </si>
   <si>
     <t>ZAR.JIBAR.3M</t>
+  </si>
+  <si>
+    <t>PV01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -234,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -242,6 +284,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +368,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,24 +612,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -566,7 +645,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -574,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -582,7 +661,7 @@
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -590,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -598,7 +677,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -606,15 +685,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="str">
         <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7,C8)</f>
-        <v>Swap0001.19:53:54-1</v>
+        <v>Swap0001.16:34:24-4</v>
       </c>
     </row>
   </sheetData>
@@ -623,25 +702,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
@@ -649,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -663,7 +742,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -675,7 +754,7 @@
         <v>fixedRate</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -687,12 +766,12 @@
         <v>index</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I6" s="7" t="str">
         <v>ccy</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -712,7 +791,7 @@
         <v>indexDates</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <f t="array" ref="B8:B27">_xll.QSA.ViewObjectPropertyValue(CreateSwap!$B$11,B7)</f>
         <v>1000000</v>
@@ -737,7 +816,7 @@
         <v>notionals</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>1000000</v>
       </c>
@@ -757,7 +836,7 @@
         <v>payFixed</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>1000000</v>
       </c>
@@ -777,7 +856,7 @@
         <v>paymentDates</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>1000000</v>
       </c>
@@ -797,7 +876,7 @@
         <v>spreads</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>1000000</v>
       </c>
@@ -814,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>1000000</v>
       </c>
@@ -831,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>1000000</v>
       </c>
@@ -848,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>1000000</v>
       </c>
@@ -865,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>1000000</v>
       </c>
@@ -882,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>1000000</v>
       </c>
@@ -899,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>1000000</v>
       </c>
@@ -916,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>1000000</v>
       </c>
@@ -933,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>1000000</v>
       </c>
@@ -950,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>1000000</v>
       </c>
@@ -967,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>1000000</v>
       </c>
@@ -984,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>1000000</v>
       </c>
@@ -1001,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>1000000</v>
       </c>
@@ -1018,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>1000000</v>
       </c>
@@ -1035,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>1000000</v>
       </c>
@@ -1052,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>1000000</v>
       </c>
@@ -1069,7 +1148,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1077,20 +1155,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1098,202 +1176,269 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>42633</v>
       </c>
       <c r="C5" s="12">
         <v>6.7699999999999996E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" cm="1">
+        <f t="array" ref="D5:D25">_xll.QSA.SwapZeroPV01(CreateSwap!B11,ValueSwap!C2,ValueSwap!B5:B25,ValueSwap!C5:C25, "ZAR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>42634</v>
       </c>
       <c r="C6" s="13">
         <v>6.7699999999999996E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>42663</v>
       </c>
       <c r="C7" s="13">
         <v>7.1169999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>42724</v>
       </c>
       <c r="C8" s="13">
         <v>7.3579999999999993E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D8" s="14">
+        <v>0.49554227617045399</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>42814</v>
       </c>
       <c r="C9" s="13">
         <v>8.0500000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D9" s="14">
+        <v>0.95399025361984968</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>42906</v>
       </c>
       <c r="C10" s="13">
         <v>8.3249999999999991E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D10" s="14">
+        <v>1.4383433268521912</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>42998</v>
       </c>
       <c r="C11" s="13">
         <v>7.6315999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D11" s="14">
+        <v>5.7550809151689464</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>43363</v>
       </c>
       <c r="C12" s="13">
         <v>7.7480000000000007E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="14">
+        <v>13.826077628888015</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>43728</v>
       </c>
       <c r="C13" s="13">
         <v>7.8579999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D13" s="14">
+        <v>19.190277106627036</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>44094</v>
       </c>
       <c r="C14" s="13">
         <v>7.9750000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D14" s="14">
+        <v>23.585373905829329</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>44459</v>
       </c>
       <c r="C15" s="13">
         <v>8.0850000000000005E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="14">
+        <v>350.19287628304119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>44824</v>
       </c>
       <c r="C16" s="13">
         <v>8.1850000000000006E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>45189</v>
       </c>
       <c r="C17" s="13">
         <v>8.2699999999999996E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>45555</v>
       </c>
       <c r="C18" s="13">
         <v>8.3430000000000004E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>45920</v>
       </c>
       <c r="C19" s="13">
         <v>8.406000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>46285</v>
       </c>
       <c r="C20" s="13">
         <v>8.455E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>47016</v>
       </c>
       <c r="C21" s="13">
         <v>8.5120000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>48111</v>
       </c>
       <c r="C22" s="13">
         <v>8.5280000000000009E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>49938</v>
       </c>
       <c r="C23" s="13">
         <v>8.455E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>51764</v>
       </c>
       <c r="C24" s="13">
         <v>8.3199999999999996E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>53590</v>
       </c>
       <c r="C25" s="13">
         <v>8.1850000000000006E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25,"ZAR")</f>
-        <v>swapCurve.19:54:00-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+        <v>swapCurve.16:34:24-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C31" s="14">
         <f>_xll.QSA.ValueZARSwap(CreateSwap!B11,C2,C28)</f>
         <v>503.9573350386454</v>

--- a/ExcelExamples/ZARSwap.xlsx
+++ b/ExcelExamples/ZARSwap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a2c6574b59b6aaf/Documents/GitHub/Riskworx/QuantSA/ExcelExamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwanz\OneDrive\Documents\GitHub\Riskworx\QuantSA\ExcelExamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_C21A89BAE15895ECB1CFC6D3ACB21B02A512DD26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E75ECC5-0111-4C70-8C2A-FC94013488CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD936A68-FA71-4225-BE4E-8ADA1DD32A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="610" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -693,7 +693,7 @@
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="str">
         <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7,C8)</f>
-        <v>Swap0001.16:34:24-4</v>
+        <v>Swap0001.22:42:13-3</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1159,7 @@
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,7 +1195,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="D5" s="14" cm="1">
-        <f t="array" ref="D5:D25">_xll.QSA.SwapZeroPV01(CreateSwap!B11,ValueSwap!C2,ValueSwap!B5:B25,ValueSwap!C5:C25, "ZAR")</f>
+        <f t="array" ref="D5:D25">_xll.QSA.ZARSwapZeroCurveRisk(CreateSwap!B11,ValueSwap!C2,ValueSwap!B5:B25,ValueSwap!C5:C25, "ZAR")</f>
         <v>0</v>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(B28,B5:B25,C5:C25,"ZAR")</f>
-        <v>swapCurve.16:34:24-3</v>
+        <v>swapCurve.22:42:13-4</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.5">
